--- a/avance_real.xlsx
+++ b/avance_real.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hector.andagua\Downloads\Entel\CLUB POWER VERANO_2026\STEAMLIT_DASH_CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60282219-A805-4558-BD2A-3106A3FE74C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3055AB7E-F5B3-432C-BEE9-CC6BDBE71951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B374A0C3-29C0-4713-B383-6053403FEB60}"/>
   </bookViews>
@@ -2244,22 +2244,22 @@
         <v>0.25</v>
       </c>
       <c r="Y2" s="18">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="Z2" s="18">
         <v>0</v>
       </c>
       <c r="AA2" s="17">
-        <v>0.32919254658385094</v>
+        <v>0.40993788819875776</v>
       </c>
       <c r="AB2" s="17">
         <v>0</v>
       </c>
       <c r="AC2" s="17">
-        <v>0.23043478260869565</v>
+        <v>0.28695652173913044</v>
       </c>
       <c r="AD2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE2" s="18">
         <v>6</v>
@@ -2342,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="Y3" s="18">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z3" s="18">
         <v>0</v>
       </c>
       <c r="AA3" s="17">
-        <v>0.33898305084745761</v>
+        <v>0.38135593220338981</v>
       </c>
       <c r="AB3" s="17">
         <v>0</v>
       </c>
       <c r="AC3" s="17">
-        <v>0.23728813559322035</v>
+        <v>0.26694915254237289</v>
       </c>
       <c r="AD3">
         <v>3</v>
@@ -2440,19 +2440,19 @@
         <v>0</v>
       </c>
       <c r="Y4" s="18">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Z4" s="18">
         <v>1</v>
       </c>
       <c r="AA4" s="17">
-        <v>0.42063492063492064</v>
+        <v>0.46825396825396826</v>
       </c>
       <c r="AB4" s="17">
         <v>1</v>
       </c>
       <c r="AC4" s="17">
-        <v>0.59444444444444444</v>
+        <v>0.62777777777777777</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -2541,16 +2541,16 @@
         <v>13</v>
       </c>
       <c r="Z5" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="17">
         <v>0.13829787234042554</v>
       </c>
       <c r="AB5" s="17">
-        <v>0</v>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="AC5" s="17">
-        <v>9.6808510638297887E-2</v>
+        <v>0.10491661874640598</v>
       </c>
       <c r="AD5">
         <v>8</v>
@@ -2636,22 +2636,22 @@
         <v>2</v>
       </c>
       <c r="Y6" s="18">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z6" s="18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA6" s="17">
-        <v>0.38068181818181818</v>
+        <v>0.39204545454545453</v>
       </c>
       <c r="AB6" s="17">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC6" s="17">
-        <v>0.50647727272727272</v>
+        <v>0.60443181818181813</v>
       </c>
       <c r="AD6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE6" s="18">
         <v>6</v>
@@ -2734,22 +2734,22 @@
         <v>1</v>
       </c>
       <c r="Y7" s="18">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Z7" s="18">
         <v>2</v>
       </c>
       <c r="AA7" s="17">
-        <v>0.34459459459459457</v>
+        <v>0.39864864864864863</v>
       </c>
       <c r="AB7" s="17">
         <v>1</v>
       </c>
       <c r="AC7" s="17">
-        <v>0.54121621621621618</v>
+        <v>0.57905405405405408</v>
       </c>
       <c r="AD7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE7" s="18">
         <v>6</v>
@@ -2832,22 +2832,22 @@
         <v>0</v>
       </c>
       <c r="Y8" s="18">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="18">
         <v>3</v>
       </c>
       <c r="AA8" s="17">
-        <v>0.30714285714285716</v>
+        <v>0.32857142857142857</v>
       </c>
       <c r="AB8" s="17">
         <v>1</v>
       </c>
       <c r="AC8" s="17">
-        <v>0.51500000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AD8">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AE8" s="18">
         <v>6</v>
@@ -2930,19 +2930,19 @@
         <v>1.8387096774193545</v>
       </c>
       <c r="Y9" s="18">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z9" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA9" s="17">
-        <v>9.3220338983050849E-2</v>
+        <v>9.8870056497175146E-2</v>
       </c>
       <c r="AB9" s="17">
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AC9" s="17">
-        <v>0.1652542372881356</v>
+        <v>0.2025423728813559</v>
       </c>
       <c r="AD9">
         <v>6</v>
@@ -3126,19 +3126,19 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y11" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z11" s="18">
         <v>0</v>
       </c>
       <c r="AA11" s="17">
-        <v>4.2553191489361701E-2</v>
+        <v>6.3829787234042548E-2</v>
       </c>
       <c r="AB11" s="17">
         <v>0</v>
       </c>
       <c r="AC11" s="17">
-        <v>2.9787234042553189E-2</v>
+        <v>4.4680851063829782E-2</v>
       </c>
       <c r="AD11">
         <v>9</v>
@@ -3224,19 +3224,19 @@
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="Y12" s="18">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="18">
         <v>7</v>
       </c>
       <c r="AA12" s="17">
-        <v>0.40883977900552487</v>
+        <v>0.41988950276243092</v>
       </c>
       <c r="AB12" s="17">
         <v>0.4375</v>
       </c>
       <c r="AC12" s="17">
-        <v>0.41743784530386741</v>
+        <v>0.42517265193370163</v>
       </c>
       <c r="AD12">
         <v>5</v>
@@ -3322,19 +3322,19 @@
         <v>0.125</v>
       </c>
       <c r="Y13" s="18">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Z13" s="18">
         <v>4</v>
       </c>
       <c r="AA13" s="17">
-        <v>0.48117154811715479</v>
+        <v>0.49372384937238495</v>
       </c>
       <c r="AB13" s="17">
         <v>0.41666666666666669</v>
       </c>
       <c r="AC13" s="17">
-        <v>0.46182008368200833</v>
+        <v>0.47060669456066945</v>
       </c>
       <c r="AD13">
         <v>4</v>
@@ -3420,19 +3420,19 @@
         <v>3.967741935483871</v>
       </c>
       <c r="Y14" s="18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z14" s="18">
         <v>1</v>
       </c>
       <c r="AA14" s="17">
-        <v>8.5308056872037921E-2</v>
+        <v>9.9526066350710901E-2</v>
       </c>
       <c r="AB14" s="17">
         <v>0.125</v>
       </c>
       <c r="AC14" s="17">
-        <v>9.7215639810426552E-2</v>
+        <v>0.10716824644549763</v>
       </c>
       <c r="AD14">
         <v>77</v>
@@ -3714,19 +3714,19 @@
         <v>8.8172043010752876E-2</v>
       </c>
       <c r="Y17" s="18">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="Z17" s="18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA17" s="17">
-        <v>0.29949238578680204</v>
+        <v>0.39593908629441626</v>
       </c>
       <c r="AB17" s="17">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="AC17" s="17">
-        <v>0.38964467005076142</v>
+        <v>0.48115736040609136</v>
       </c>
       <c r="AD17">
         <v>7</v>
@@ -3910,19 +3910,19 @@
         <v>0.11520737327188946</v>
       </c>
       <c r="Y19" s="18">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Z19" s="18">
         <v>3</v>
       </c>
       <c r="AA19" s="17">
-        <v>0.16580310880829016</v>
+        <v>0.20207253886010362</v>
       </c>
       <c r="AB19" s="17">
         <v>0.125</v>
       </c>
       <c r="AC19" s="17">
-        <v>0.15356217616580312</v>
+        <v>0.17895077720207253</v>
       </c>
       <c r="AD19">
         <v>13</v>
@@ -4008,19 +4008,19 @@
         <v>0.5</v>
       </c>
       <c r="Y20" s="18">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Z20" s="18">
         <v>1</v>
       </c>
       <c r="AA20" s="17">
-        <v>0.2011173184357542</v>
+        <v>0.24581005586592178</v>
       </c>
       <c r="AB20" s="17">
         <v>0.33333333333333331</v>
       </c>
       <c r="AC20" s="17">
-        <v>0.24078212290502793</v>
+        <v>0.27206703910614527</v>
       </c>
       <c r="AD20">
         <v>5</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="Y21" s="18">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="Z21" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA21" s="17">
-        <v>0.75257731958762886</v>
+        <v>1.0515463917525774</v>
       </c>
       <c r="AB21" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC21" s="17">
-        <v>2.3268041237113404</v>
+        <v>3.1360824742268041</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4204,22 +4204,22 @@
         <v>0.25</v>
       </c>
       <c r="Y22" s="18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z22" s="18">
         <v>2</v>
       </c>
       <c r="AA22" s="17">
-        <v>0.55714285714285716</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AB22" s="17">
         <v>0.4</v>
       </c>
       <c r="AC22" s="17">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="AD22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE22" s="18">
         <v>1</v>
@@ -4302,19 +4302,19 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y23" s="18">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="Z23" s="18">
         <v>1</v>
       </c>
       <c r="AA23" s="17">
-        <v>0.13580246913580246</v>
+        <v>0.21604938271604937</v>
       </c>
       <c r="AB23" s="17">
         <v>0.5</v>
       </c>
       <c r="AC23" s="17">
-        <v>0.24506172839506171</v>
+        <v>0.30123456790123454</v>
       </c>
       <c r="AD23">
         <v>6</v>
@@ -4596,28 +4596,28 @@
         <v>0</v>
       </c>
       <c r="Y26" s="18">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Z26" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="17">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AB26" s="17">
         <v>2</v>
       </c>
-      <c r="AA26" s="17">
-        <v>0.31538461538461537</v>
-      </c>
-      <c r="AB26" s="17">
-        <v>1</v>
-      </c>
       <c r="AC26" s="17">
-        <v>0.52076923076923076</v>
+        <v>0.86923076923076925</v>
       </c>
       <c r="AD26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="18">
         <v>1</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
@@ -4694,28 +4694,28 @@
         <v>0.18279569892473146</v>
       </c>
       <c r="Y27" s="18">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="Z27" s="18">
         <v>3</v>
       </c>
       <c r="AA27" s="17">
-        <v>0.46103896103896103</v>
+        <v>0.51948051948051943</v>
       </c>
       <c r="AB27" s="17">
         <v>0.6</v>
       </c>
       <c r="AC27" s="17">
-        <v>0.50272727272727269</v>
+        <v>0.54363636363636358</v>
       </c>
       <c r="AD27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" s="18">
         <v>1</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
@@ -4792,22 +4792,22 @@
         <v>0.5</v>
       </c>
       <c r="Y28" s="18">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Z28" s="18">
         <v>1</v>
       </c>
       <c r="AA28" s="17">
-        <v>0.39610389610389612</v>
+        <v>0.43506493506493504</v>
       </c>
       <c r="AB28" s="17">
         <v>0.33333333333333331</v>
       </c>
       <c r="AC28" s="17">
-        <v>0.37727272727272732</v>
+        <v>0.40454545454545454</v>
       </c>
       <c r="AD28">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AE28" s="18">
         <v>6</v>
@@ -4890,22 +4890,22 @@
         <v>0</v>
       </c>
       <c r="Y29" s="18">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z29" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="17">
-        <v>0.20338983050847459</v>
+        <v>0.38983050847457629</v>
       </c>
       <c r="AB29" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" s="17">
-        <v>0.14237288135593221</v>
+        <v>0.57288135593220335</v>
       </c>
       <c r="AD29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE29" s="18">
         <v>2</v>
@@ -4988,19 +4988,19 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y30" s="18">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Z30" s="18">
         <v>0</v>
       </c>
       <c r="AA30" s="17">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="AB30" s="17">
         <v>0</v>
       </c>
       <c r="AC30" s="17">
-        <v>0.38500000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="AD30">
         <v>4</v>
@@ -5086,19 +5086,19 @@
         <v>0</v>
       </c>
       <c r="Y31" s="18">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="Z31" s="18">
         <v>4</v>
       </c>
       <c r="AA31" s="17">
-        <v>0.95714285714285718</v>
+        <v>1.0857142857142856</v>
       </c>
       <c r="AB31" s="17">
         <v>0.8</v>
       </c>
       <c r="AC31" s="17">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AD31">
         <v>2</v>
@@ -5282,19 +5282,19 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y33" s="18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Z33" s="18">
         <v>2</v>
       </c>
       <c r="AA33" s="17">
-        <v>0.22916666666666666</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="AB33" s="17">
         <v>0.2857142857142857</v>
       </c>
       <c r="AC33" s="17">
-        <v>0.24613095238095234</v>
+        <v>0.33363095238095242</v>
       </c>
       <c r="AD33">
         <v>8</v>
@@ -5380,19 +5380,19 @@
         <v>0.18279569892473146</v>
       </c>
       <c r="Y34" s="18">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="Z34" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA34" s="17">
-        <v>0.15151515151515152</v>
+        <v>0.19360269360269361</v>
       </c>
       <c r="AB34" s="17">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AC34" s="17">
-        <v>0.64606060606060611</v>
+        <v>0.73552188552188558</v>
       </c>
       <c r="AD34">
         <v>3</v>
@@ -5478,19 +5478,19 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y35" s="18">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="Z35" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA35" s="17">
-        <v>0.39746835443037976</v>
+        <v>0.50886075949367093</v>
       </c>
       <c r="AB35" s="17">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC35" s="17">
-        <v>0.50322784810126575</v>
+        <v>0.59620253164556969</v>
       </c>
       <c r="AD35">
         <v>27</v>
@@ -5576,19 +5576,19 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y36" s="18">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="Z36" s="18">
         <v>2</v>
       </c>
       <c r="AA36" s="17">
-        <v>0.19070904645476772</v>
+        <v>0.23960880195599021</v>
       </c>
       <c r="AB36" s="17">
         <v>0.2857142857142857</v>
       </c>
       <c r="AC36" s="17">
-        <v>0.21921061823262314</v>
+        <v>0.25344044708347885</v>
       </c>
       <c r="AD36">
         <v>7</v>
@@ -5674,28 +5674,28 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="Y37" s="18">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="Z37" s="18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA37" s="17">
-        <v>0.5</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="AB37" s="17">
-        <v>0.66666666666666663</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="AC37" s="17">
-        <v>0.55000000000000004</v>
+        <v>0.80227272727272725</v>
       </c>
       <c r="AD37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE37" s="18">
         <v>2</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.3">
@@ -5772,19 +5772,19 @@
         <v>8.4229390681003435E-2</v>
       </c>
       <c r="Y38" s="18">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Z38" s="18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA38" s="17">
-        <v>0.41698841698841699</v>
+        <v>0.4826254826254826</v>
       </c>
       <c r="AB38" s="17">
-        <v>0.65573770491803274</v>
+        <v>0.67213114754098358</v>
       </c>
       <c r="AC38" s="17">
-        <v>0.48861320336730174</v>
+        <v>0.53947718210013296</v>
       </c>
       <c r="AD38">
         <v>3</v>
@@ -5870,22 +5870,22 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y39" s="18">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="Z39" s="18">
         <v>2</v>
       </c>
       <c r="AA39" s="17">
-        <v>0.23809523809523808</v>
+        <v>0.30158730158730157</v>
       </c>
       <c r="AB39" s="17">
         <v>0.5</v>
       </c>
       <c r="AC39" s="17">
-        <v>0.31666666666666665</v>
+        <v>0.36111111111111116</v>
       </c>
       <c r="AD39">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AE39" s="18">
         <v>6</v>
@@ -5968,22 +5968,22 @@
         <v>1</v>
       </c>
       <c r="Y40" s="18">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="Z40" s="18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA40" s="17">
-        <v>0.47894736842105262</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="AB40" s="17">
-        <v>0.20588235294117646</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="AC40" s="17">
-        <v>0.39702786377708976</v>
+        <v>0.54798761609907121</v>
       </c>
       <c r="AD40">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AE40" s="18">
         <v>6</v>
@@ -6066,19 +6066,19 @@
         <v>1</v>
       </c>
       <c r="Y41" s="18">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="Z41" s="18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA41" s="17">
-        <v>0.34615384615384615</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="AB41" s="17">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="AC41" s="17">
-        <v>1.1423076923076922</v>
+        <v>1.6681818181818182</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -6164,19 +6164,19 @@
         <v>0</v>
       </c>
       <c r="Y42" s="18">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="Z42" s="18">
         <v>6</v>
       </c>
       <c r="AA42" s="17">
-        <v>0.28116710875331563</v>
+        <v>0.35278514588859416</v>
       </c>
       <c r="AB42" s="17">
         <v>3</v>
       </c>
       <c r="AC42" s="17">
-        <v>1.096816976127321</v>
+        <v>1.146949602122016</v>
       </c>
       <c r="AD42">
         <v>3</v>
@@ -6262,22 +6262,22 @@
         <v>2</v>
       </c>
       <c r="Y43" s="18">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Z43" s="18">
         <v>3</v>
       </c>
       <c r="AA43" s="17">
-        <v>0.37894736842105264</v>
+        <v>0.41052631578947368</v>
       </c>
       <c r="AB43" s="17">
         <v>0.75</v>
       </c>
       <c r="AC43" s="17">
-        <v>0.49026315789473685</v>
+        <v>0.51236842105263158</v>
       </c>
       <c r="AD43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE43" s="18">
         <v>2</v>
@@ -6360,22 +6360,22 @@
         <v>2.9032258064516125</v>
       </c>
       <c r="Y44" s="18">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="Z44" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA44" s="17">
-        <v>0.43069306930693069</v>
+        <v>0.51485148514851486</v>
       </c>
       <c r="AB44" s="17">
-        <v>0.25</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="AC44" s="17">
-        <v>0.37648514851485149</v>
+        <v>0.48539603960396044</v>
       </c>
       <c r="AD44">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AE44" s="18">
         <v>6</v>
@@ -6458,19 +6458,19 @@
         <v>0</v>
       </c>
       <c r="Y45" s="18">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="Z45" s="18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA45" s="17">
-        <v>0.50160771704180063</v>
+        <v>0.55305466237942125</v>
       </c>
       <c r="AB45" s="17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC45" s="17">
-        <v>2.7511254019292601</v>
+        <v>3.987138263665595</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="AD46">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE46" s="18">
         <v>6</v>
@@ -6654,22 +6654,22 @@
         <v>0</v>
       </c>
       <c r="Y47" s="18">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Z47" s="18">
         <v>1</v>
       </c>
       <c r="AA47" s="17">
-        <v>0.27071823204419887</v>
+        <v>0.30939226519337015</v>
       </c>
       <c r="AB47" s="17">
         <v>1</v>
       </c>
       <c r="AC47" s="17">
-        <v>0.48950276243093926</v>
+        <v>0.51657458563535907</v>
       </c>
       <c r="AD47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE47" s="18">
         <v>1</v>
@@ -6752,19 +6752,19 @@
         <v>1.2473118279569895</v>
       </c>
       <c r="Y48" s="18">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="Z48" s="18">
         <v>1</v>
       </c>
       <c r="AA48" s="17">
-        <v>0.2857142857142857</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="AB48" s="17">
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="AC48" s="17">
-        <v>0.20714285714285716</v>
+        <v>0.23214285714285715</v>
       </c>
       <c r="AD48">
         <v>6</v>
@@ -6850,22 +6850,22 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y49" s="18">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Z49" s="18">
         <v>7</v>
       </c>
       <c r="AA49" s="17">
-        <v>0.43356643356643354</v>
+        <v>0.49650349650349651</v>
       </c>
       <c r="AB49" s="17">
         <v>1</v>
       </c>
       <c r="AC49" s="17">
-        <v>0.60349650349650341</v>
+        <v>0.64755244755244745</v>
       </c>
       <c r="AD49">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE49" s="18">
         <v>6</v>
@@ -6963,7 +6963,7 @@
         <v>0.14736842105263157</v>
       </c>
       <c r="AD50">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE50" s="18">
         <v>6</v>
@@ -7046,22 +7046,22 @@
         <v>9.6774193548387011E-2</v>
       </c>
       <c r="Y51" s="18">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="Z51" s="18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AA51" s="17">
-        <v>0.23134328358208955</v>
+        <v>0.29850746268656714</v>
       </c>
       <c r="AB51" s="17">
-        <v>0.25</v>
+        <v>0.30357142857142855</v>
       </c>
       <c r="AC51" s="17">
-        <v>0.23694029850746268</v>
+        <v>0.30002665245202559</v>
       </c>
       <c r="AD51">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AE51" s="18">
         <v>6</v>
@@ -7144,22 +7144,22 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y52" s="18">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="Z52" s="18">
         <v>1</v>
       </c>
       <c r="AA52" s="17">
-        <v>9.3167701863354033E-2</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="AB52" s="17">
         <v>0.33333333333333331</v>
       </c>
       <c r="AC52" s="17">
-        <v>0.16521739130434782</v>
+        <v>0.20652173913043476</v>
       </c>
       <c r="AD52">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE52" s="18">
         <v>6</v>
@@ -7242,19 +7242,19 @@
         <v>0</v>
       </c>
       <c r="Y53" s="18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z53" s="18">
         <v>0</v>
       </c>
       <c r="AA53" s="17">
-        <v>5.5084745762711863E-2</v>
+        <v>7.2033898305084748E-2</v>
       </c>
       <c r="AB53" s="17">
         <v>0</v>
       </c>
       <c r="AC53" s="17">
-        <v>3.8559322033898308E-2</v>
+        <v>5.0423728813559325E-2</v>
       </c>
       <c r="AD53">
         <v>8</v>
@@ -7340,19 +7340,19 @@
         <v>8.46013390139988E-2</v>
       </c>
       <c r="Y54" s="18">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="Z54" s="18">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AA54" s="17">
-        <v>0.78529411764705881</v>
+        <v>0.93235294117647061</v>
       </c>
       <c r="AB54" s="17">
-        <v>0.6333333333333333</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="AC54" s="17">
-        <v>0.73970588235294121</v>
+        <v>0.89931372549019617</v>
       </c>
       <c r="AD54">
         <v>2</v>
@@ -7438,22 +7438,22 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y55" s="18">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Z55" s="18">
         <v>1</v>
       </c>
       <c r="AA55" s="17">
-        <v>0.14864864864864866</v>
+        <v>0.22972972972972974</v>
       </c>
       <c r="AB55" s="17">
         <v>0.25</v>
       </c>
       <c r="AC55" s="17">
-        <v>0.17905405405405403</v>
+        <v>0.23581081081081082</v>
       </c>
       <c r="AD55">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AE55" s="18">
         <v>6</v>
@@ -7536,22 +7536,22 @@
         <v>0</v>
       </c>
       <c r="Y56" s="18">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z56" s="18">
         <v>0</v>
       </c>
       <c r="AA56" s="17">
-        <v>0.31067961165048541</v>
+        <v>0.36893203883495146</v>
       </c>
       <c r="AB56" s="17">
         <v>0</v>
       </c>
       <c r="AC56" s="17">
-        <v>0.21747572815533978</v>
+        <v>0.258252427184466</v>
       </c>
       <c r="AD56">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE56" s="18">
         <v>6</v>
@@ -7634,19 +7634,19 @@
         <v>0</v>
       </c>
       <c r="Y57" s="18">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="Z57" s="18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA57" s="17">
-        <v>0.32790224032586557</v>
+        <v>0.38900203665987781</v>
       </c>
       <c r="AB57" s="17">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AC57" s="17">
-        <v>1.5795315682281059</v>
+        <v>2.0723014256619141</v>
       </c>
       <c r="AD57">
         <v>2</v>
@@ -7732,22 +7732,22 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y58" s="18">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z58" s="18">
         <v>0</v>
       </c>
       <c r="AA58" s="17">
-        <v>0.3482142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="AB58" s="17">
         <v>0</v>
       </c>
       <c r="AC58" s="17">
-        <v>0.24374999999999999</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="AD58">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE58" s="18">
         <v>6</v>
@@ -7830,19 +7830,19 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y59" s="18">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z59" s="18">
         <v>0</v>
       </c>
       <c r="AA59" s="17">
-        <v>0.13008130081300814</v>
+        <v>0.14227642276422764</v>
       </c>
       <c r="AB59" s="17">
         <v>0</v>
       </c>
       <c r="AC59" s="17">
-        <v>9.1056910569105712E-2</v>
+        <v>9.959349593495935E-2</v>
       </c>
       <c r="AD59">
         <v>5</v>
@@ -7928,19 +7928,19 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y60" s="18">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Z60" s="18">
         <v>1</v>
       </c>
       <c r="AA60" s="17">
-        <v>0.28421052631578947</v>
+        <v>0.33684210526315789</v>
       </c>
       <c r="AB60" s="17">
         <v>0.14285714285714285</v>
       </c>
       <c r="AC60" s="17">
-        <v>0.24180451127819549</v>
+        <v>0.27864661654135336</v>
       </c>
       <c r="AD60">
         <v>12</v>
@@ -8026,19 +8026,19 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y61" s="18">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Z61" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA61" s="17">
-        <v>0.4049586776859504</v>
+        <v>0.43388429752066116</v>
       </c>
       <c r="AB61" s="17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AC61" s="17">
-        <v>0.73347107438016534</v>
+        <v>0.90371900826446283</v>
       </c>
       <c r="AD61">
         <v>2</v>
@@ -8124,19 +8124,19 @@
         <v>0</v>
       </c>
       <c r="Y62" s="18">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Z62" s="18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA62" s="17">
-        <v>0.36529680365296802</v>
+        <v>0.408675799086758</v>
       </c>
       <c r="AB62" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC62" s="17">
-        <v>1.4557077625570776</v>
+        <v>1.7860730593607306</v>
       </c>
       <c r="AD62">
         <v>3</v>
@@ -8222,19 +8222,19 @@
         <v>0</v>
       </c>
       <c r="Y63" s="18">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z63" s="18">
         <v>1</v>
       </c>
       <c r="AA63" s="17">
-        <v>0.2265625</v>
+        <v>0.265625</v>
       </c>
       <c r="AB63" s="17">
         <v>0.14285714285714285</v>
       </c>
       <c r="AC63" s="17">
-        <v>0.20145089285714285</v>
+        <v>0.22879464285714285</v>
       </c>
       <c r="AD63">
         <v>69</v>
@@ -8320,22 +8320,22 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y64" s="18">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Z64" s="18">
         <v>1</v>
       </c>
       <c r="AA64" s="17">
-        <v>0.39814814814814814</v>
+        <v>0.5</v>
       </c>
       <c r="AB64" s="17">
         <v>0.5</v>
       </c>
       <c r="AC64" s="17">
-        <v>0.42870370370370364</v>
+        <v>0.5</v>
       </c>
       <c r="AD64">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AE64" s="18">
         <v>6</v>
@@ -8418,22 +8418,22 @@
         <v>6.4516129032258229E-2</v>
       </c>
       <c r="Y65" s="18">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Z65" s="18">
         <v>7</v>
       </c>
       <c r="AA65" s="17">
-        <v>0.29906542056074764</v>
+        <v>0.3644859813084112</v>
       </c>
       <c r="AB65" s="17">
         <v>0.7</v>
       </c>
       <c r="AC65" s="17">
-        <v>0.41934579439252334</v>
+        <v>0.46514018691588788</v>
       </c>
       <c r="AD65">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AE65" s="18">
         <v>6</v>
@@ -8614,22 +8614,22 @@
         <v>1.8387096774193545</v>
       </c>
       <c r="Y67" s="18">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Z67" s="18">
         <v>0</v>
       </c>
       <c r="AA67" s="17">
-        <v>0.35454545454545455</v>
+        <v>0.39090909090909093</v>
       </c>
       <c r="AB67" s="17">
         <v>0</v>
       </c>
       <c r="AC67" s="17">
-        <v>0.2481818181818182</v>
+        <v>0.27363636363636362</v>
       </c>
       <c r="AD67">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AE67" s="18">
         <v>6</v>
@@ -8712,22 +8712,22 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y68" s="18">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Z68" s="18">
         <v>2</v>
       </c>
       <c r="AA68" s="17">
-        <v>0.49152542372881358</v>
+        <v>0.55932203389830504</v>
       </c>
       <c r="AB68" s="17">
         <v>0.2857142857142857</v>
       </c>
       <c r="AC68" s="17">
-        <v>0.42978208232445519</v>
+        <v>0.47723970944309918</v>
       </c>
       <c r="AD68">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE68" s="18">
         <v>6</v>
@@ -8908,22 +8908,22 @@
         <v>6.4516129032258229E-2</v>
       </c>
       <c r="Y70" s="18">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="Z70" s="18">
         <v>5</v>
       </c>
       <c r="AA70" s="17">
-        <v>0.46774193548387094</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="AB70" s="17">
         <v>0.5</v>
       </c>
       <c r="AC70" s="17">
-        <v>0.47741935483870968</v>
+        <v>0.60161290322580641</v>
       </c>
       <c r="AD70">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE70" s="18">
         <v>6</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="Y71" s="18">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Z71" s="18">
         <v>1</v>
       </c>
       <c r="AA71" s="17">
-        <v>0.51086956521739135</v>
+        <v>0.55434782608695654</v>
       </c>
       <c r="AB71" s="17">
         <v>0.5</v>
       </c>
       <c r="AC71" s="17">
-        <v>0.50760869565217392</v>
+        <v>0.53804347826086962</v>
       </c>
       <c r="AD71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE71" s="18">
         <v>1</v>
       </c>
       <c r="AF71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.3">
@@ -9104,22 +9104,22 @@
         <v>0.41935483870967771</v>
       </c>
       <c r="Y72" s="18">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Z72" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA72" s="17">
-        <v>0.26066350710900477</v>
+        <v>0.31753554502369669</v>
       </c>
       <c r="AB72" s="17">
-        <v>0.38461538461538464</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="AC72" s="17">
-        <v>0.29784907036091873</v>
+        <v>0.40689026613197227</v>
       </c>
       <c r="AD72">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="AE72" s="18">
         <v>6</v>
@@ -9300,22 +9300,22 @@
         <v>8.6693548387096753E-2</v>
       </c>
       <c r="Y74" s="18">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="Z74" s="18">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA74" s="17">
-        <v>0.29961089494163423</v>
+        <v>0.35408560311284049</v>
       </c>
       <c r="AB74" s="17">
-        <v>0.16666666666666666</v>
+        <v>0.31481481481481483</v>
       </c>
       <c r="AC74" s="17">
-        <v>0.25972762645914399</v>
+        <v>0.34230436662343278</v>
       </c>
       <c r="AD74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE74" s="18">
         <v>2</v>
@@ -9398,22 +9398,22 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y75" s="18">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z75" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA75" s="17">
-        <v>0.41052631578947368</v>
+        <v>0.43157894736842106</v>
       </c>
       <c r="AB75" s="17">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC75" s="17">
-        <v>0.43736842105263157</v>
+        <v>0.52710526315789474</v>
       </c>
       <c r="AD75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE75" s="18">
         <v>1</v>
@@ -9594,19 +9594,19 @@
         <v>0.24193548387096775</v>
       </c>
       <c r="Y77" s="18">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Z77" s="18">
         <v>13</v>
       </c>
       <c r="AA77" s="17">
-        <v>1.1221374045801527</v>
+        <v>1.1755725190839694</v>
       </c>
       <c r="AB77" s="17">
         <v>0.8125</v>
       </c>
       <c r="AC77" s="17">
-        <v>1.0292461832061068</v>
+        <v>1.0666507633587785</v>
       </c>
       <c r="AD77">
         <v>1</v>
@@ -9692,19 +9692,19 @@
         <v>1.3064516129032255</v>
       </c>
       <c r="Y78" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z78" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA78" s="17">
-        <v>0.24193548387096775</v>
+        <v>0.25</v>
       </c>
       <c r="AB78" s="17">
-        <v>0.42857142857142855</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AC78" s="17">
-        <v>0.29792626728110599</v>
+        <v>0.34642857142857136</v>
       </c>
       <c r="AD78">
         <v>10</v>
@@ -9790,22 +9790,22 @@
         <v>0.33333333333333326</v>
       </c>
       <c r="Y79" s="18">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z79" s="18">
         <v>2</v>
       </c>
       <c r="AA79" s="17">
-        <v>0.3125</v>
+        <v>0.359375</v>
       </c>
       <c r="AB79" s="17">
         <v>0.5</v>
       </c>
       <c r="AC79" s="17">
-        <v>0.36875000000000002</v>
+        <v>0.40156249999999999</v>
       </c>
       <c r="AD79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE79" s="18">
         <v>2</v>
@@ -9888,19 +9888,19 @@
         <v>0</v>
       </c>
       <c r="Y80" s="18">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Z80" s="18">
         <v>0</v>
       </c>
       <c r="AA80" s="17">
-        <v>0.22580645161290322</v>
+        <v>0.30645161290322581</v>
       </c>
       <c r="AB80" s="17">
         <v>0</v>
       </c>
       <c r="AC80" s="17">
-        <v>0.15806451612903227</v>
+        <v>0.21451612903225808</v>
       </c>
       <c r="AD80">
         <v>9</v>
@@ -9986,22 +9986,22 @@
         <v>0.15322580645161277</v>
       </c>
       <c r="Y81" s="18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z81" s="18">
         <v>8</v>
       </c>
       <c r="AA81" s="17">
-        <v>0.25</v>
+        <v>0.32692307692307693</v>
       </c>
       <c r="AB81" s="17">
         <v>0.5714285714285714</v>
       </c>
       <c r="AC81" s="17">
-        <v>0.34642857142857136</v>
+        <v>0.40027472527472524</v>
       </c>
       <c r="AD81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE81" s="18">
         <v>2</v>
@@ -10084,22 +10084,22 @@
         <v>0.77419354838709675</v>
       </c>
       <c r="Y82" s="18">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Z82" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA82" s="17">
-        <v>0.42201834862385323</v>
+        <v>0.49541284403669728</v>
       </c>
       <c r="AB82" s="17">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC82" s="17">
-        <v>0.34541284403669725</v>
+        <v>0.44678899082568813</v>
       </c>
       <c r="AD82">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE82" s="18">
         <v>6</v>
@@ -10182,19 +10182,19 @@
         <v>6.4516129032258229E-2</v>
       </c>
       <c r="Y83" s="18">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="Z83" s="18">
         <v>5</v>
       </c>
       <c r="AA83" s="17">
-        <v>0.43518518518518517</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="AB83" s="17">
         <v>0.5</v>
       </c>
       <c r="AC83" s="17">
-        <v>0.45462962962962961</v>
+        <v>0.55833333333333335</v>
       </c>
       <c r="AD83">
         <v>32</v>
@@ -10280,19 +10280,19 @@
         <v>0</v>
       </c>
       <c r="Y84" s="18">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Z84" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA84" s="17">
-        <v>0.35443037974683544</v>
+        <v>0.43037974683544306</v>
       </c>
       <c r="AB84" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC84" s="17">
-        <v>0.39810126582278488</v>
+        <v>0.60126582278481011</v>
       </c>
       <c r="AD84">
         <v>4</v>
@@ -10378,22 +10378,22 @@
         <v>0</v>
       </c>
       <c r="Y85" s="18">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Z85" s="18">
         <v>1</v>
       </c>
       <c r="AA85" s="17">
-        <v>0.52083333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AB85" s="17">
         <v>0.2</v>
       </c>
       <c r="AC85" s="17">
-        <v>0.42458333333333337</v>
+        <v>0.52666666666666662</v>
       </c>
       <c r="AD85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE85" s="18">
         <v>1</v>
@@ -10476,22 +10476,22 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y86" s="18">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Z86" s="18">
         <v>1</v>
       </c>
       <c r="AA86" s="17">
-        <v>0.32608695652173914</v>
+        <v>0.37681159420289856</v>
       </c>
       <c r="AB86" s="17">
         <v>0.25</v>
       </c>
       <c r="AC86" s="17">
-        <v>0.30326086956521736</v>
+        <v>0.33876811594202899</v>
       </c>
       <c r="AD86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE86" s="18">
         <v>2</v>
@@ -10672,19 +10672,19 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y88" s="18">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="Z88" s="18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA88" s="17">
-        <v>0.32319391634980987</v>
+        <v>0.43346007604562736</v>
       </c>
       <c r="AB88" s="17">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AC88" s="17">
-        <v>1.726235741444867</v>
+        <v>2.2534220532319393</v>
       </c>
       <c r="AD88">
         <v>2</v>
@@ -10770,19 +10770,19 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="Y89" s="18">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Z89" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA89" s="17">
-        <v>0.33333333333333331</v>
+        <v>0.36274509803921567</v>
       </c>
       <c r="AB89" s="17">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AC89" s="17">
-        <v>0.30833333333333335</v>
+        <v>0.36642156862745096</v>
       </c>
       <c r="AD89">
         <v>53</v>
@@ -10868,22 +10868,22 @@
         <v>0.15322580645161277</v>
       </c>
       <c r="Y90" s="18">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Z90" s="18">
         <v>3</v>
       </c>
       <c r="AA90" s="17">
-        <v>0.36046511627906974</v>
+        <v>0.39534883720930231</v>
       </c>
       <c r="AB90" s="17">
         <v>0.21428571428571427</v>
       </c>
       <c r="AC90" s="17">
-        <v>0.31661129568106305</v>
+        <v>0.34102990033222591</v>
       </c>
       <c r="AD90">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AE90" s="18">
         <v>6</v>
@@ -10966,22 +10966,22 @@
         <v>0</v>
       </c>
       <c r="Y91" s="18">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Z91" s="18">
         <v>0</v>
       </c>
       <c r="AA91" s="17">
-        <v>0.22950819672131148</v>
+        <v>0.27049180327868855</v>
       </c>
       <c r="AB91" s="17">
         <v>0</v>
       </c>
       <c r="AC91" s="17">
-        <v>0.16065573770491803</v>
+        <v>0.18934426229508197</v>
       </c>
       <c r="AD91">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE91" s="18">
         <v>2</v>
@@ -11064,22 +11064,22 @@
         <v>0.73476702508960545</v>
       </c>
       <c r="Y92" s="18">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="Z92" s="18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AA92" s="17">
-        <v>0.61012658227848104</v>
+        <v>0.68101265822784807</v>
       </c>
       <c r="AB92" s="17">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="AC92" s="17">
-        <v>0.61458860759493672</v>
+        <v>0.70170886075949368</v>
       </c>
       <c r="AD92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE92" s="18">
         <v>2</v>
@@ -11162,22 +11162,22 @@
         <v>0</v>
       </c>
       <c r="Y93" s="18">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Z93" s="18">
         <v>1</v>
       </c>
       <c r="AA93" s="17">
-        <v>0.42201834862385323</v>
+        <v>0.46788990825688076</v>
       </c>
       <c r="AB93" s="17">
         <v>1</v>
       </c>
       <c r="AC93" s="17">
-        <v>0.59541284403669725</v>
+        <v>0.62752293577981655</v>
       </c>
       <c r="AD93">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE93" s="18">
         <v>6</v>
@@ -11260,22 +11260,22 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y94" s="18">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="Z94" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA94" s="17">
-        <v>0.45535714285714285</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="AB94" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC94" s="17">
-        <v>0.31874999999999998</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="AD94">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="AE94" s="18">
         <v>6</v>
@@ -11358,22 +11358,22 @@
         <v>3.967741935483871</v>
       </c>
       <c r="Y95" s="18">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z95" s="18">
         <v>2</v>
       </c>
       <c r="AA95" s="17">
-        <v>0.45522388059701491</v>
+        <v>0.48507462686567165</v>
       </c>
       <c r="AB95" s="17">
         <v>0.25</v>
       </c>
       <c r="AC95" s="17">
-        <v>0.39365671641791039</v>
+        <v>0.4145522388059702</v>
       </c>
       <c r="AD95">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AE95" s="18">
         <v>6</v>
@@ -11456,22 +11456,22 @@
         <v>0.18279569892473146</v>
       </c>
       <c r="Y96" s="18">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z96" s="18">
         <v>0</v>
       </c>
       <c r="AA96" s="17">
-        <v>8.1743869209809257E-3</v>
+        <v>3.2697547683923703E-2</v>
       </c>
       <c r="AB96" s="17">
         <v>0</v>
       </c>
       <c r="AC96" s="17">
-        <v>5.7220708446866471E-3</v>
+        <v>2.2888283378746588E-2</v>
       </c>
       <c r="AD96">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE96" s="18">
         <v>6</v>
@@ -11554,19 +11554,19 @@
         <v>6.4516129032258229E-2</v>
       </c>
       <c r="Y97" s="18">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="Z97" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA97" s="17">
-        <v>0.42023346303501946</v>
+        <v>0.49027237354085601</v>
       </c>
       <c r="AB97" s="17">
-        <v>0.47058823529411764</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="AC97" s="17">
-        <v>0.43533989471274892</v>
+        <v>0.51966124971389338</v>
       </c>
       <c r="AD97">
         <v>8</v>
@@ -11652,22 +11652,22 @@
         <v>1.4838709677419355</v>
       </c>
       <c r="Y98" s="18">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Z98" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA98" s="17">
-        <v>0.46759259259259262</v>
+        <v>0.56018518518518523</v>
       </c>
       <c r="AB98" s="17">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AC98" s="17">
-        <v>0.4773148148148148</v>
+        <v>0.57962962962962972</v>
       </c>
       <c r="AD98">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE98" s="18">
         <v>6</v>
@@ -11750,19 +11750,19 @@
         <v>0.24193548387096775</v>
       </c>
       <c r="Y99" s="18">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Z99" s="18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA99" s="17">
-        <v>0.57647058823529407</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="AB99" s="17">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="AC99" s="17">
-        <v>0.70352941176470585</v>
+        <v>0.88191176470588228</v>
       </c>
       <c r="AD99">
         <v>1</v>
@@ -11848,19 +11848,19 @@
         <v>-6.4516129032257119E-3</v>
       </c>
       <c r="Y100" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z100" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA100" s="17">
-        <v>0.33333333333333331</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="AB100" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC100" s="17">
-        <v>0.45833333333333326</v>
+        <v>0.54838709677419362</v>
       </c>
       <c r="AD100">
         <v>5</v>
@@ -11946,19 +11946,19 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y101" s="18">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="Z101" s="18">
         <v>6</v>
       </c>
       <c r="AA101" s="17">
-        <v>0.24369747899159663</v>
+        <v>0.28151260504201681</v>
       </c>
       <c r="AB101" s="17">
         <v>1.5</v>
       </c>
       <c r="AC101" s="17">
-        <v>0.62058823529411766</v>
+        <v>0.64705882352941169</v>
       </c>
       <c r="AD101">
         <v>1</v>
@@ -12044,19 +12044,19 @@
         <v>1.4838709677419355</v>
       </c>
       <c r="Y102" s="18">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Z102" s="18">
         <v>0</v>
       </c>
       <c r="AA102" s="17">
-        <v>8.7378640776699032E-2</v>
+        <v>0.14077669902912621</v>
       </c>
       <c r="AB102" s="17">
         <v>0</v>
       </c>
       <c r="AC102" s="17">
-        <v>6.1165048543689322E-2</v>
+        <v>9.8543689320388345E-2</v>
       </c>
       <c r="AD102">
         <v>8</v>
@@ -12142,22 +12142,22 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y103" s="18">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Z103" s="18">
         <v>0</v>
       </c>
       <c r="AA103" s="17">
-        <v>0.15432098765432098</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="AB103" s="17">
         <v>0</v>
       </c>
       <c r="AC103" s="17">
-        <v>0.10802469135802469</v>
+        <v>0.18148148148148149</v>
       </c>
       <c r="AD103">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE103" s="18">
         <v>6</v>
@@ -12240,22 +12240,22 @@
         <v>0.16589861751152069</v>
       </c>
       <c r="Y104" s="18">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Z104" s="18">
+        <v>10</v>
+      </c>
+      <c r="AA104" s="17">
+        <v>0.36046511627906974</v>
+      </c>
+      <c r="AB104" s="17">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AC104" s="17">
+        <v>0.36771019677996419</v>
+      </c>
+      <c r="AD104">
         <v>6</v>
-      </c>
-      <c r="AA104" s="17">
-        <v>0.26744186046511625</v>
-      </c>
-      <c r="AB104" s="17">
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="AC104" s="17">
-        <v>0.25644007155635062</v>
-      </c>
-      <c r="AD104">
-        <v>8</v>
       </c>
       <c r="AE104" s="18">
         <v>1</v>
@@ -12338,19 +12338,19 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y105" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z105" s="18">
         <v>3</v>
       </c>
       <c r="AA105" s="17">
-        <v>0.33823529411764708</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="AB105" s="17">
         <v>0.42857142857142855</v>
       </c>
       <c r="AC105" s="17">
-        <v>0.36533613445378149</v>
+        <v>0.37563025210084033</v>
       </c>
       <c r="AD105">
         <v>7</v>
@@ -12436,22 +12436,22 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y106" s="18">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Z106" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA106" s="17">
-        <v>0.11409395973154363</v>
+        <v>0.30201342281879195</v>
       </c>
       <c r="AB106" s="17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AC106" s="17">
-        <v>0.67986577181208052</v>
+        <v>0.96140939597315433</v>
       </c>
       <c r="AD106">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE106" s="18">
         <v>2</v>
@@ -12534,22 +12534,22 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y107" s="18">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="Z107" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA107" s="17">
-        <v>0.33858267716535434</v>
+        <v>0.51968503937007871</v>
       </c>
       <c r="AB107" s="17">
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AC107" s="17">
-        <v>0.32272215973003376</v>
+        <v>0.49235095613048363</v>
       </c>
       <c r="AD107">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AE107" s="18">
         <v>6</v>
@@ -12730,22 +12730,22 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y109" s="18">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Z109" s="18">
         <v>0</v>
       </c>
       <c r="AA109" s="17">
-        <v>0.6227544910179641</v>
+        <v>0.74251497005988021</v>
       </c>
       <c r="AB109" s="17">
         <v>0</v>
       </c>
       <c r="AC109" s="17">
-        <v>0.43592814371257488</v>
+        <v>0.51976047904191613</v>
       </c>
       <c r="AD109">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AE109" s="18">
         <v>6</v>
@@ -12828,22 +12828,22 @@
         <v>1.217741935483871</v>
       </c>
       <c r="Y110" s="18">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="Z110" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA110" s="17">
-        <v>0.19420289855072465</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="AB110" s="17">
-        <v>0.10714285714285714</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="AC110" s="17">
-        <v>0.16808488612836439</v>
+        <v>0.30776397515527948</v>
       </c>
       <c r="AD110">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE110" s="18">
         <v>2</v>
@@ -12926,22 +12926,22 @@
         <v>0.18279569892473146</v>
       </c>
       <c r="Y111" s="18">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Z111" s="18">
         <v>3</v>
       </c>
       <c r="AA111" s="17">
-        <v>0.25196850393700787</v>
+        <v>0.3543307086614173</v>
       </c>
       <c r="AB111" s="17">
         <v>0.5</v>
       </c>
       <c r="AC111" s="17">
-        <v>0.32637795275590548</v>
+        <v>0.39803149606299215</v>
       </c>
       <c r="AD111">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AE111" s="18">
         <v>6</v>
@@ -13024,22 +13024,22 @@
         <v>0.31797235023041481</v>
       </c>
       <c r="Y112" s="18">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Z112" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA112" s="17">
-        <v>0.37735849056603776</v>
+        <v>0.39245283018867927</v>
       </c>
       <c r="AB112" s="17">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="AC112" s="17">
-        <v>0.39272237196765503</v>
+        <v>0.42471698113207551</v>
       </c>
       <c r="AD112">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE112" s="18">
         <v>6</v>
@@ -13137,7 +13137,7 @@
         <v>0.45624999999999999</v>
       </c>
       <c r="AD113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE113" s="18">
         <v>1</v>
@@ -13220,19 +13220,19 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y114" s="18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z114" s="18">
         <v>5</v>
       </c>
       <c r="AA114" s="17">
-        <v>0.30952380952380953</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="AB114" s="17">
         <v>1.25</v>
       </c>
       <c r="AC114" s="17">
-        <v>0.59166666666666667</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="AD114">
         <v>2</v>
@@ -13318,22 +13318,22 @@
         <v>0.77419354838709675</v>
       </c>
       <c r="Y115" s="18">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Z115" s="18">
+        <v>7</v>
+      </c>
+      <c r="AA115" s="17">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="AB115" s="17">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="AC115" s="17">
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="AD115">
         <v>6</v>
-      </c>
-      <c r="AA115" s="17">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="AB115" s="17">
-        <v>1</v>
-      </c>
-      <c r="AC115" s="17">
-        <v>0.75694444444444442</v>
-      </c>
-      <c r="AD115">
-        <v>4</v>
       </c>
       <c r="AE115" s="18">
         <v>2</v>
@@ -13416,19 +13416,19 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y116" s="18">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="Z116" s="18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA116" s="17">
-        <v>0.38434163701067614</v>
+        <v>0.45195729537366547</v>
       </c>
       <c r="AB116" s="17">
-        <v>1.2857142857142858</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AC116" s="17">
-        <v>0.65475343162175903</v>
+        <v>0.78779867819013716</v>
       </c>
       <c r="AD116">
         <v>14</v>
@@ -13514,22 +13514,22 @@
         <v>0.24193548387096775</v>
       </c>
       <c r="Y117" s="18">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="Z117" s="18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA117" s="17">
-        <v>0.3903345724907063</v>
+        <v>0.47583643122676578</v>
       </c>
       <c r="AB117" s="17">
-        <v>0.25</v>
+        <v>0.4375</v>
       </c>
       <c r="AC117" s="17">
-        <v>0.34823420074349443</v>
+        <v>0.46433550185873607</v>
       </c>
       <c r="AD117">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE117" s="18">
         <v>6</v>
@@ -13612,22 +13612,22 @@
         <v>6.4516129032258229E-2</v>
       </c>
       <c r="Y118" s="18">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Z118" s="18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA118" s="17">
-        <v>0.45500000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="AB118" s="17">
-        <v>0.76470588235294112</v>
+        <v>1</v>
       </c>
       <c r="AC118" s="17">
-        <v>0.54791176470588232</v>
+        <v>0.67800000000000016</v>
       </c>
       <c r="AD118">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE118" s="18">
         <v>6</v>
@@ -13725,7 +13725,7 @@
         <v>0.3073170731707317</v>
       </c>
       <c r="AD119">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AE119" s="18">
         <v>6</v>
@@ -13808,22 +13808,22 @@
         <v>0</v>
       </c>
       <c r="Y120" s="18">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z120" s="18">
         <v>1</v>
       </c>
       <c r="AA120" s="17">
-        <v>0.34166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="AB120" s="17">
         <v>0.5</v>
       </c>
       <c r="AC120" s="17">
-        <v>0.38916666666666672</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="AD120">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AE120" s="18">
         <v>6</v>
@@ -13906,22 +13906,22 @@
         <v>0.24193548387096775</v>
       </c>
       <c r="Y121" s="18">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="Z121" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA121" s="17">
-        <v>0.685131195335277</v>
+        <v>0.74927113702623904</v>
       </c>
       <c r="AB121" s="17">
-        <v>1.625</v>
+        <v>1.75</v>
       </c>
       <c r="AC121" s="17">
-        <v>0.96709183673469401</v>
+        <v>1.0494897959183673</v>
       </c>
       <c r="AD121">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE121" s="18">
         <v>6</v>
@@ -14004,22 +14004,22 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y122" s="18">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="Z122" s="18">
         <v>5</v>
       </c>
       <c r="AA122" s="17">
-        <v>0.29194630872483224</v>
+        <v>0.34228187919463088</v>
       </c>
       <c r="AB122" s="17">
         <v>0.38461538461538464</v>
       </c>
       <c r="AC122" s="17">
-        <v>0.31974703149199796</v>
+        <v>0.35498193082085699</v>
       </c>
       <c r="AD122">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AE122" s="18">
         <v>6</v>
@@ -14102,19 +14102,19 @@
         <v>0.10394265232974886</v>
       </c>
       <c r="Y123" s="18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z123" s="18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA123" s="17">
-        <v>0.14285714285714285</v>
+        <v>0.18095238095238095</v>
       </c>
       <c r="AB123" s="17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AC123" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="AD123">
         <v>9</v>
@@ -14215,7 +14215,7 @@
         <v>0.35842105263157897</v>
       </c>
       <c r="AD124">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE124" s="18">
         <v>1</v>
@@ -14298,22 +14298,22 @@
         <v>2.5483870967741935</v>
       </c>
       <c r="Y125" s="18">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="Z125" s="18">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AA125" s="17">
-        <v>0.61194029850746268</v>
+        <v>0.82835820895522383</v>
       </c>
       <c r="AB125" s="17">
-        <v>0.72727272727272729</v>
+        <v>1.2727272727272727</v>
       </c>
       <c r="AC125" s="17">
-        <v>0.64654002713704217</v>
+        <v>0.96166892808683857</v>
       </c>
       <c r="AD125">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE125" s="18">
         <v>6</v>
@@ -14411,7 +14411,7 @@
         <v>2.1021021021021023E-2</v>
       </c>
       <c r="AD126">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE126" s="18">
         <v>6</v>
@@ -14494,22 +14494,22 @@
         <v>0.18279569892473146</v>
       </c>
       <c r="Y127" s="18">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="Z127" s="18">
         <v>6</v>
       </c>
       <c r="AA127" s="17">
-        <v>0.36363636363636365</v>
+        <v>0.42424242424242425</v>
       </c>
       <c r="AB127" s="17">
         <v>1.2</v>
       </c>
       <c r="AC127" s="17">
-        <v>0.61454545454545451</v>
+        <v>0.65696969696969698</v>
       </c>
       <c r="AD127">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE127" s="18">
         <v>6</v>
@@ -14592,19 +14592,19 @@
         <v>0.95161290322580627</v>
       </c>
       <c r="Y128" s="18">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="Z128" s="18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA128" s="17">
-        <v>0.56000000000000005</v>
+        <v>0.72</v>
       </c>
       <c r="AB128" s="17">
-        <v>0.625</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="AC128" s="17">
-        <v>0.57950000000000002</v>
+        <v>0.74150000000000005</v>
       </c>
       <c r="AD128">
         <v>7</v>
@@ -14788,22 +14788,22 @@
         <v>9.3286835222319064E-2</v>
       </c>
       <c r="Y130" s="18">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="Z130" s="18">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AA130" s="17">
-        <v>0.78030303030303028</v>
+        <v>0.89015151515151514</v>
       </c>
       <c r="AB130" s="17">
-        <v>0.30158730158730157</v>
+        <v>0.34920634920634919</v>
       </c>
       <c r="AC130" s="17">
-        <v>0.63668831168831164</v>
+        <v>0.72786796536796539</v>
       </c>
       <c r="AD130">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE130" s="18">
         <v>6</v>
@@ -14886,19 +14886,19 @@
         <v>3.258064516129032</v>
       </c>
       <c r="Y131" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z131" s="18">
         <v>0</v>
       </c>
       <c r="AA131" s="17">
-        <v>0</v>
+        <v>2.0533880903490759E-2</v>
       </c>
       <c r="AB131" s="17">
         <v>0</v>
       </c>
       <c r="AC131" s="17">
-        <v>0</v>
+        <v>1.4373716632443531E-2</v>
       </c>
       <c r="AD131">
         <v>81</v>
@@ -14984,19 +14984,19 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y132" s="18">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="Z132" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA132" s="17">
-        <v>0.35752688172043012</v>
+        <v>0.45430107526881719</v>
       </c>
       <c r="AB132" s="17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AC132" s="17">
-        <v>0.85026881720430114</v>
+        <v>0.99301075268817196</v>
       </c>
       <c r="AD132">
         <v>9</v>
@@ -15082,22 +15082,22 @@
         <v>0</v>
       </c>
       <c r="Y133" s="18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z133" s="18">
         <v>0</v>
       </c>
       <c r="AA133" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="AB133" s="17">
         <v>0</v>
       </c>
       <c r="AC133" s="17">
-        <v>0.19600000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="AD133">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE133" s="18">
         <v>2</v>
@@ -15180,19 +15180,19 @@
         <v>0.11520737327188946</v>
       </c>
       <c r="Y134" s="18">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Z134" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA134" s="17">
-        <v>8.4415584415584416E-2</v>
+        <v>0.12987012987012986</v>
       </c>
       <c r="AB134" s="17">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AC134" s="17">
-        <v>5.909090909090909E-2</v>
+        <v>0.11590909090909091</v>
       </c>
       <c r="AD134">
         <v>9</v>
@@ -15278,22 +15278,22 @@
         <v>0.18279569892473146</v>
       </c>
       <c r="Y135" s="18">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Z135" s="18">
         <v>2</v>
       </c>
       <c r="AA135" s="17">
-        <v>0.50588235294117645</v>
+        <v>0.55294117647058827</v>
       </c>
       <c r="AB135" s="17">
         <v>0.4</v>
       </c>
       <c r="AC135" s="17">
-        <v>0.47411764705882348</v>
+        <v>0.50705882352941178</v>
       </c>
       <c r="AD135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE135" s="18">
         <v>1</v>
@@ -15376,22 +15376,22 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y136" s="18">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Z136" s="18">
         <v>6</v>
       </c>
       <c r="AA136" s="17">
-        <v>0.25886524822695034</v>
+        <v>0.28723404255319152</v>
       </c>
       <c r="AB136" s="17">
         <v>3</v>
       </c>
       <c r="AC136" s="17">
-        <v>1.0812056737588653</v>
+        <v>1.1010638297872339</v>
       </c>
       <c r="AD136">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE136" s="18">
         <v>6</v>
@@ -15474,22 +15474,22 @@
         <v>6.4516129032258229E-2</v>
       </c>
       <c r="Y137" s="18">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Z137" s="18">
         <v>4</v>
       </c>
       <c r="AA137" s="17">
-        <v>0.2541436464088398</v>
+        <v>0.31491712707182318</v>
       </c>
       <c r="AB137" s="17">
         <v>0.4</v>
       </c>
       <c r="AC137" s="17">
-        <v>0.29790055248618785</v>
+        <v>0.34044198895027622</v>
       </c>
       <c r="AD137">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE137" s="18">
         <v>6</v>
@@ -15670,19 +15670,19 @@
         <v>9.1811414392059421E-2</v>
       </c>
       <c r="Y139" s="18">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Z139" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA139" s="17">
-        <v>0.31</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AB139" s="17">
-        <v>0.18181818181818182</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="AC139" s="17">
-        <v>0.27154545454545453</v>
+        <v>0.31668181818181812</v>
       </c>
       <c r="AD139">
         <v>60</v>
@@ -15768,19 +15768,19 @@
         <v>0.18279569892473146</v>
       </c>
       <c r="Y140" s="18">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="Z140" s="18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA140" s="17">
-        <v>0.88785046728971961</v>
+        <v>1.0654205607476634</v>
       </c>
       <c r="AB140" s="17">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AC140" s="17">
-        <v>1.2214953271028037</v>
+        <v>1.4657943925233645</v>
       </c>
       <c r="AD140">
         <v>1</v>
@@ -15866,19 +15866,19 @@
         <v>0</v>
       </c>
       <c r="Y141" s="18">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Z141" s="18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA141" s="17">
-        <v>0.60655737704918034</v>
+        <v>0.66393442622950816</v>
       </c>
       <c r="AB141" s="17">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="AC141" s="17">
-        <v>0.68709016393442623</v>
+        <v>0.80225409836065575</v>
       </c>
       <c r="AD141">
         <v>13</v>
@@ -15964,22 +15964,22 @@
         <v>0.15322580645161277</v>
       </c>
       <c r="Y142" s="18">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="Z142" s="18">
+        <v>7</v>
+      </c>
+      <c r="AA142" s="17">
+        <v>0.45692883895131087</v>
+      </c>
+      <c r="AB142" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="AC142" s="17">
+        <v>0.4698501872659176</v>
+      </c>
+      <c r="AD142">
         <v>4</v>
-      </c>
-      <c r="AA142" s="17">
-        <v>0.34831460674157305</v>
-      </c>
-      <c r="AB142" s="17">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AC142" s="17">
-        <v>0.32953451043338683</v>
-      </c>
-      <c r="AD142">
-        <v>5</v>
       </c>
       <c r="AE142" s="18">
         <v>2</v>
@@ -16062,22 +16062,22 @@
         <v>0.18279569892473146</v>
       </c>
       <c r="Y143" s="18">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z143" s="18">
         <v>5</v>
       </c>
       <c r="AA143" s="17">
-        <v>0.21428571428571427</v>
+        <v>0.22448979591836735</v>
       </c>
       <c r="AB143" s="17">
         <v>1</v>
       </c>
       <c r="AC143" s="17">
-        <v>0.45</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="AD143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE143" s="18">
         <v>2</v>
@@ -16160,22 +16160,22 @@
         <v>0.18279569892473146</v>
       </c>
       <c r="Y144" s="18">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="Z144" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA144" s="17">
-        <v>0.52083333333333337</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="AB144" s="17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC144" s="17">
-        <v>0.60458333333333336</v>
+        <v>0.74236111111111114</v>
       </c>
       <c r="AD144">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE144" s="18">
         <v>6</v>
@@ -16258,19 +16258,19 @@
         <v>0.77419354838709675</v>
       </c>
       <c r="Y145" s="18">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Z145" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA145" s="17">
-        <v>0.82638888888888884</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="AB145" s="17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AC145" s="17">
-        <v>0.75847222222222233</v>
+        <v>0.86708333333333343</v>
       </c>
       <c r="AD145">
         <v>12</v>
@@ -16356,19 +16356,19 @@
         <v>6.4516129032258229E-2</v>
       </c>
       <c r="Y146" s="18">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="Z146" s="18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AA146" s="17">
-        <v>0.40425531914893614</v>
+        <v>0.48226950354609927</v>
       </c>
       <c r="AB146" s="17">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AC146" s="17">
-        <v>0.70297872340425527</v>
+        <v>0.87758865248226958</v>
       </c>
       <c r="AD146">
         <v>5</v>
@@ -16454,19 +16454,19 @@
         <v>0.11520737327188946</v>
       </c>
       <c r="Y147" s="18">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Z147" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA147" s="17">
-        <v>0.22905027932960895</v>
+        <v>0.3016759776536313</v>
       </c>
       <c r="AB147" s="17">
-        <v>0.20833333333333334</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC147" s="17">
-        <v>0.22283519553072625</v>
+        <v>0.31117318435754193</v>
       </c>
       <c r="AD147">
         <v>10</v>
@@ -16552,19 +16552,19 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y148" s="18">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Z148" s="18">
         <v>3</v>
       </c>
       <c r="AA148" s="17">
-        <v>0.2196078431372549</v>
+        <v>0.2627450980392157</v>
       </c>
       <c r="AB148" s="17">
         <v>0.42857142857142855</v>
       </c>
       <c r="AC148" s="17">
-        <v>0.28229691876750701</v>
+        <v>0.31249299719887957</v>
       </c>
       <c r="AD148">
         <v>11</v>
@@ -16650,22 +16650,22 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y149" s="18">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z149" s="18">
         <v>1</v>
       </c>
       <c r="AA149" s="17">
-        <v>0.65591397849462363</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AB149" s="17">
         <v>0.14285714285714285</v>
       </c>
       <c r="AC149" s="17">
-        <v>0.50199692780337946</v>
+        <v>0.50952380952380949</v>
       </c>
       <c r="AD149">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE149" s="18">
         <v>2</v>
@@ -16748,22 +16748,22 @@
         <v>7.5962539021852127E-2</v>
       </c>
       <c r="Y150" s="18">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="Z150" s="18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AA150" s="17">
-        <v>0.41993957703927492</v>
+        <v>0.48036253776435045</v>
       </c>
       <c r="AB150" s="17">
-        <v>0.30769230769230771</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="AC150" s="17">
-        <v>0.38626539623518474</v>
+        <v>0.4516383918196607</v>
       </c>
       <c r="AD150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE150" s="18">
         <v>2</v>
@@ -16846,22 +16846,22 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y151" s="18">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="Z151" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA151" s="17">
-        <v>0.36942675159235666</v>
+        <v>0.5286624203821656</v>
       </c>
       <c r="AB151" s="17">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AC151" s="17">
-        <v>1.0085987261146496</v>
+        <v>1.5700636942675157</v>
       </c>
       <c r="AD151">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE151" s="18">
         <v>6</v>
@@ -16944,19 +16944,19 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y152" s="18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z152" s="18">
         <v>2</v>
       </c>
       <c r="AA152" s="17">
-        <v>0.14782608695652175</v>
+        <v>0.16521739130434782</v>
       </c>
       <c r="AB152" s="17">
         <v>1</v>
       </c>
       <c r="AC152" s="17">
-        <v>0.40347826086956523</v>
+        <v>0.41565217391304343</v>
       </c>
       <c r="AD152">
         <v>6</v>
@@ -17042,19 +17042,19 @@
         <v>7.9943899018232845E-2</v>
       </c>
       <c r="Y153" s="18">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="Z153" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA153" s="17">
-        <v>0.46691176470588236</v>
+        <v>0.51838235294117652</v>
       </c>
       <c r="AB153" s="17">
-        <v>0.46153846153846156</v>
+        <v>0.48717948717948717</v>
       </c>
       <c r="AC153" s="17">
-        <v>0.46529977375565612</v>
+        <v>0.50902149321266965</v>
       </c>
       <c r="AD153">
         <v>3</v>
@@ -17140,19 +17140,19 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y154" s="18">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="Z154" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA154" s="17">
-        <v>0.26993865030674846</v>
+        <v>0.34049079754601225</v>
       </c>
       <c r="AB154" s="17">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AC154" s="17">
-        <v>0.36038562664329532</v>
+        <v>0.49548641542506572</v>
       </c>
       <c r="AD154">
         <v>4</v>
@@ -17238,22 +17238,22 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y155" s="18">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="Z155" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA155" s="17">
-        <v>0.36818181818181817</v>
+        <v>0.44545454545454544</v>
       </c>
       <c r="AB155" s="17">
-        <v>1.1428571428571428</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AC155" s="17">
-        <v>0.60058441558441555</v>
+        <v>0.74038961038961049</v>
       </c>
       <c r="AD155">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE155" s="18">
         <v>6</v>
@@ -17336,22 +17336,22 @@
         <v>9.1811414392059421E-2</v>
       </c>
       <c r="Y156" s="18">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="Z156" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA156" s="17">
-        <v>0.3282442748091603</v>
+        <v>0.41221374045801529</v>
       </c>
       <c r="AB156" s="17">
-        <v>0.22727272727272727</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="AC156" s="17">
-        <v>0.29795281054823036</v>
+        <v>0.38400416377515617</v>
       </c>
       <c r="AD156">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AE156" s="18">
         <v>6</v>
@@ -17434,22 +17434,22 @@
         <v>0.77419354838709675</v>
       </c>
       <c r="Y157" s="18">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="Z157" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA157" s="17">
-        <v>0.21938775510204081</v>
+        <v>0.29081632653061223</v>
       </c>
       <c r="AB157" s="17">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AC157" s="17">
-        <v>0.27357142857142852</v>
+        <v>0.38357142857142862</v>
       </c>
       <c r="AD157">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AE157" s="18">
         <v>6</v>
@@ -17532,22 +17532,22 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y158" s="18">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Z158" s="18">
         <v>1</v>
       </c>
       <c r="AA158" s="17">
-        <v>0.21794871794871795</v>
+        <v>0.28205128205128205</v>
       </c>
       <c r="AB158" s="17">
         <v>0.5</v>
       </c>
       <c r="AC158" s="17">
-        <v>0.30256410256410254</v>
+        <v>0.34743589743589742</v>
       </c>
       <c r="AD158">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE158" s="18">
         <v>6</v>
@@ -17630,19 +17630,19 @@
         <v>0.625</v>
       </c>
       <c r="Y159" s="18">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="Z159" s="18">
         <v>5</v>
       </c>
       <c r="AA159" s="17">
-        <v>0.27433628318584069</v>
+        <v>0.31858407079646017</v>
       </c>
       <c r="AB159" s="17">
         <v>0.35714285714285715</v>
       </c>
       <c r="AC159" s="17">
-        <v>0.29917825537294562</v>
+        <v>0.3301517067003793</v>
       </c>
       <c r="AD159">
         <v>3</v>
@@ -17728,19 +17728,19 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y160" s="18">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="Z160" s="18">
         <v>8</v>
       </c>
       <c r="AA160" s="17">
-        <v>0.30612244897959184</v>
+        <v>0.41496598639455784</v>
       </c>
       <c r="AB160" s="17">
         <v>0.61538461538461542</v>
       </c>
       <c r="AC160" s="17">
-        <v>0.39890109890109898</v>
+        <v>0.47509157509157512</v>
       </c>
       <c r="AD160">
         <v>9</v>
@@ -17826,19 +17826,19 @@
         <v>0.15322580645161277</v>
       </c>
       <c r="Y161" s="18">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="Z161" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA161" s="17">
-        <v>0.1650485436893204</v>
+        <v>0.30097087378640774</v>
       </c>
       <c r="AB161" s="17">
-        <v>0.21428571428571427</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AC161" s="17">
-        <v>0.17981969486823857</v>
+        <v>0.29639389736477112</v>
       </c>
       <c r="AD161">
         <v>9</v>
@@ -17924,22 +17924,22 @@
         <v>0.10394265232974886</v>
       </c>
       <c r="Y162" s="18">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z162" s="18">
         <v>3</v>
       </c>
       <c r="AA162" s="17">
-        <v>0.23591549295774647</v>
+        <v>0.23943661971830985</v>
       </c>
       <c r="AB162" s="17">
         <v>0.2</v>
       </c>
       <c r="AC162" s="17">
-        <v>0.22514084507042254</v>
+        <v>0.22760563380281687</v>
       </c>
       <c r="AD162">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AE162" s="18">
         <v>6</v>
@@ -18022,22 +18022,22 @@
         <v>8.8172043010752876E-2</v>
       </c>
       <c r="Y163" s="18">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="Z163" s="18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA163" s="17">
-        <v>0.33783783783783783</v>
+        <v>0.43693693693693691</v>
       </c>
       <c r="AB163" s="17">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="AC163" s="17">
-        <v>0.3444864864864865</v>
+        <v>0.46185585585585587</v>
       </c>
       <c r="AD163">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE163" s="18">
         <v>2</v>
@@ -18218,22 +18218,22 @@
         <v>0</v>
       </c>
       <c r="Y165" s="18">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Z165" s="18">
         <v>2</v>
       </c>
       <c r="AA165" s="17">
-        <v>0.22950819672131148</v>
+        <v>0.25683060109289618</v>
       </c>
       <c r="AB165" s="17">
         <v>2</v>
       </c>
       <c r="AC165" s="17">
-        <v>0.7606557377049179</v>
+        <v>0.77978142076502732</v>
       </c>
       <c r="AD165">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE165" s="18">
         <v>6</v>
@@ -18316,19 +18316,19 @@
         <v>-6.4516129032257119E-3</v>
       </c>
       <c r="Y166" s="18">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="Z166" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA166" s="17">
-        <v>0.52173913043478259</v>
+        <v>0.66847826086956519</v>
       </c>
       <c r="AB166" s="17">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC166" s="17">
-        <v>0.5902173913043478</v>
+        <v>0.73043478260869565</v>
       </c>
       <c r="AD166">
         <v>2</v>
@@ -18414,19 +18414,19 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y167" s="18">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z167" s="18">
         <v>1</v>
       </c>
       <c r="AA167" s="17">
-        <v>0.19318181818181818</v>
+        <v>0.21022727272727273</v>
       </c>
       <c r="AB167" s="17">
         <v>0.14285714285714285</v>
       </c>
       <c r="AC167" s="17">
-        <v>0.17808441558441557</v>
+        <v>0.19001623376623378</v>
       </c>
       <c r="AD167">
         <v>7</v>
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="AD168">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE168" s="18">
         <v>6</v>
@@ -18610,22 +18610,22 @@
         <v>1.1290322580645165</v>
       </c>
       <c r="Y169" s="18">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Z169" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA169" s="17">
-        <v>0.22164948453608246</v>
+        <v>0.27835051546391754</v>
       </c>
       <c r="AB169" s="17">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="AC169" s="17">
-        <v>0.17015463917525772</v>
+        <v>0.23984536082474228</v>
       </c>
       <c r="AD169">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AE169" s="18">
         <v>6</v>
@@ -18708,22 +18708,22 @@
         <v>0.18279569892473146</v>
       </c>
       <c r="Y170" s="18">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z170" s="18">
         <v>1</v>
       </c>
       <c r="AA170" s="17">
-        <v>0.20652173913043478</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="AB170" s="17">
         <v>0.2</v>
       </c>
       <c r="AC170" s="17">
-        <v>0.20456521739130437</v>
+        <v>0.21217391304347827</v>
       </c>
       <c r="AD170">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AE170" s="18">
         <v>6</v>
@@ -18806,22 +18806,22 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y171" s="18">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Z171" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA171" s="17">
-        <v>0.11983471074380166</v>
+        <v>0.15289256198347106</v>
       </c>
       <c r="AB171" s="17">
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AC171" s="17">
-        <v>0.28388429752066119</v>
+        <v>0.60702479338842974</v>
       </c>
       <c r="AD171">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE171" s="18">
         <v>2</v>
@@ -18904,28 +18904,28 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y172" s="18">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Z172" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA172" s="17">
-        <v>0.27333333333333332</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="AB172" s="17">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AC172" s="17">
-        <v>0.34133333333333332</v>
+        <v>0.66466666666666674</v>
       </c>
       <c r="AD172">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE172" s="18">
         <v>2</v>
       </c>
       <c r="AF172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:32" x14ac:dyDescent="0.3">
@@ -19002,19 +19002,19 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y173" s="18">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="Z173" s="18">
         <v>0</v>
       </c>
       <c r="AA173" s="17">
-        <v>0.23868312757201646</v>
+        <v>0.29218106995884774</v>
       </c>
       <c r="AB173" s="17">
         <v>0</v>
       </c>
       <c r="AC173" s="17">
-        <v>0.16707818930041152</v>
+        <v>0.20452674897119341</v>
       </c>
       <c r="AD173">
         <v>7</v>
@@ -19100,22 +19100,22 @@
         <v>0.15322580645161277</v>
       </c>
       <c r="Y174" s="18">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Z174" s="18">
         <v>1</v>
       </c>
       <c r="AA174" s="17">
-        <v>0.13215859030837004</v>
+        <v>0.16740088105726872</v>
       </c>
       <c r="AB174" s="17">
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AC174" s="17">
-        <v>0.11393958464443045</v>
+        <v>0.13860918816865953</v>
       </c>
       <c r="AD174">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE174" s="18">
         <v>6</v>
@@ -19198,19 +19198,19 @@
         <v>9.6774193548387011E-2</v>
       </c>
       <c r="Y175" s="18">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Z175" s="18">
         <v>4</v>
       </c>
       <c r="AA175" s="17">
-        <v>0.17127071823204421</v>
+        <v>0.20994475138121546</v>
       </c>
       <c r="AB175" s="17">
         <v>0.21052631578947367</v>
       </c>
       <c r="AC175" s="17">
-        <v>0.18304739749927307</v>
+        <v>0.21011922070369293</v>
       </c>
       <c r="AD175">
         <v>7</v>
@@ -19296,28 +19296,28 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y176" s="18">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="Z176" s="18">
         <v>11</v>
       </c>
       <c r="AA176" s="17">
-        <v>0.29205607476635514</v>
+        <v>0.35981308411214952</v>
       </c>
       <c r="AB176" s="17">
         <v>2.75</v>
       </c>
       <c r="AC176" s="17">
-        <v>1.0294392523364486</v>
+        <v>1.0768691588785047</v>
       </c>
       <c r="AD176">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE176" s="18">
         <v>6</v>
       </c>
       <c r="AF176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:32" x14ac:dyDescent="0.3">
@@ -19492,22 +19492,22 @@
         <v>0.10394265232974886</v>
       </c>
       <c r="Y178" s="18">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="Z178" s="18">
         <v>4</v>
       </c>
       <c r="AA178" s="17">
-        <v>0.25123152709359609</v>
+        <v>0.33990147783251229</v>
       </c>
       <c r="AB178" s="17">
         <v>0.26666666666666666</v>
       </c>
       <c r="AC178" s="17">
-        <v>0.25586206896551728</v>
+        <v>0.31793103448275861</v>
       </c>
       <c r="AD178">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE178" s="18">
         <v>6</v>
@@ -19590,22 +19590,22 @@
         <v>0.18279569892473146</v>
       </c>
       <c r="Y179" s="18">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="Z179" s="18">
         <v>1</v>
       </c>
       <c r="AA179" s="17">
-        <v>0.14682539682539683</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="AB179" s="17">
         <v>0.2</v>
       </c>
       <c r="AC179" s="17">
-        <v>0.1627777777777778</v>
+        <v>0.21555555555555558</v>
       </c>
       <c r="AD179">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE179" s="18">
         <v>6</v>
@@ -19688,19 +19688,19 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y180" s="18">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="Z180" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA180" s="17">
-        <v>0.394919168591224</v>
+        <v>0.47113163972286376</v>
       </c>
       <c r="AB180" s="17">
-        <v>2.3333333333333335</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AC180" s="17">
-        <v>0.97644341801385681</v>
+        <v>1.1297921478060047</v>
       </c>
       <c r="AD180">
         <v>1</v>
@@ -19786,22 +19786,22 @@
         <v>9.6774193548387011E-2</v>
       </c>
       <c r="Y181" s="18">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="Z181" s="18">
+        <v>5</v>
+      </c>
+      <c r="AA181" s="17">
+        <v>0.46012269938650308</v>
+      </c>
+      <c r="AB181" s="17">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="AC181" s="17">
+        <v>0.40103325799160472</v>
+      </c>
+      <c r="AD181">
         <v>4</v>
-      </c>
-      <c r="AA181" s="17">
-        <v>0.33435582822085891</v>
-      </c>
-      <c r="AB181" s="17">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="AC181" s="17">
-        <v>0.29720697449144334</v>
-      </c>
-      <c r="AD181">
-        <v>5</v>
       </c>
       <c r="AE181" s="18">
         <v>2</v>
@@ -19899,7 +19899,7 @@
         <v>0.44121621621621621</v>
       </c>
       <c r="AD182">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE182" s="18">
         <v>2</v>
@@ -19982,22 +19982,22 @@
         <v>0.11520737327188924</v>
       </c>
       <c r="Y183" s="18">
+        <v>39</v>
+      </c>
+      <c r="Z183" s="18">
         <v>23</v>
       </c>
-      <c r="Z183" s="18">
-        <v>16</v>
-      </c>
       <c r="AA183" s="17">
-        <v>0.26136363636363635</v>
+        <v>0.44318181818181818</v>
       </c>
       <c r="AB183" s="17">
-        <v>0.44444444444444442</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="AC183" s="17">
-        <v>0.31628787878787873</v>
+        <v>0.50189393939393934</v>
       </c>
       <c r="AD183">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="AE183" s="18">
         <v>6</v>
@@ -20080,22 +20080,22 @@
         <v>7.5161290322580641</v>
       </c>
       <c r="Y184" s="18">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="Z184" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA184" s="17">
-        <v>0.54159292035398232</v>
+        <v>0.63539823008849561</v>
       </c>
       <c r="AB184" s="17">
-        <v>1.5384615384615385</v>
+        <v>1.6153846153846154</v>
       </c>
       <c r="AC184" s="17">
-        <v>0.8406535057862492</v>
+        <v>0.92939414567733147</v>
       </c>
       <c r="AD184">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE184" s="18">
         <v>6</v>
@@ -20178,19 +20178,19 @@
         <v>0</v>
       </c>
       <c r="Y185" s="18">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="Z185" s="18">
         <v>0</v>
       </c>
       <c r="AA185" s="17">
-        <v>0.20869565217391303</v>
+        <v>0.27536231884057971</v>
       </c>
       <c r="AB185" s="17">
         <v>0</v>
       </c>
       <c r="AC185" s="17">
-        <v>0.14608695652173911</v>
+        <v>0.19275362318840578</v>
       </c>
       <c r="AD185">
         <v>7</v>
@@ -20276,19 +20276,19 @@
         <v>0.11520737327188946</v>
       </c>
       <c r="Y186" s="18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z186" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA186" s="17">
-        <v>0</v>
+        <v>2.7868852459016394E-2</v>
       </c>
       <c r="AB186" s="17">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AC186" s="17">
-        <v>0</v>
+        <v>4.4508196721311476E-2</v>
       </c>
       <c r="AD186">
         <v>8</v>
@@ -20374,19 +20374,19 @@
         <v>6.4516129032258229E-2</v>
       </c>
       <c r="Y187" s="18">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Z187" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA187" s="17">
-        <v>0.21865889212827988</v>
+        <v>0.24198250728862974</v>
       </c>
       <c r="AB187" s="17">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AC187" s="17">
-        <v>0.40806122448979593</v>
+        <v>0.43938775510204081</v>
       </c>
       <c r="AD187">
         <v>5</v>
@@ -20472,22 +20472,22 @@
         <v>0.25127334465195239</v>
       </c>
       <c r="Y188" s="18">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="Z188" s="18">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA188" s="17">
-        <v>0.52845528455284552</v>
+        <v>0.63956639566395668</v>
       </c>
       <c r="AB188" s="17">
-        <v>0.32432432432432434</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="AC188" s="17">
-        <v>0.46721599648428919</v>
+        <v>0.56120999047828324</v>
       </c>
       <c r="AD188">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE188" s="18">
         <v>6</v>
@@ -20570,22 +20570,22 @@
         <v>0.16589861751152069</v>
       </c>
       <c r="Y189" s="18">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="Z189" s="18">
         <v>17</v>
       </c>
       <c r="AA189" s="17">
-        <v>0.51247165532879824</v>
+        <v>0.57369614512471656</v>
       </c>
       <c r="AB189" s="17">
         <v>0.65384615384615385</v>
       </c>
       <c r="AC189" s="17">
-        <v>0.55488400488400491</v>
+        <v>0.59774114774114784</v>
       </c>
       <c r="AD189">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE189" s="18">
         <v>6</v>
@@ -20668,28 +20668,28 @@
         <v>0.10394265232974886</v>
       </c>
       <c r="Y190" s="18">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="Z190" s="18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA190" s="17">
-        <v>0.41806020066889632</v>
+        <v>0.49498327759197325</v>
       </c>
       <c r="AB190" s="17">
-        <v>0.73333333333333328</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AC190" s="17">
-        <v>0.51264214046822743</v>
+        <v>0.60648829431438134</v>
       </c>
       <c r="AD190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE190" s="18">
         <v>2</v>
       </c>
       <c r="AF190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:32" x14ac:dyDescent="0.3">
@@ -20766,19 +20766,19 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y191" s="18">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="Z191" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA191" s="17">
-        <v>0.34259259259259262</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="AB191" s="17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AC191" s="17">
-        <v>1.1398148148148148</v>
+        <v>1.3708333333333331</v>
       </c>
       <c r="AD191">
         <v>1</v>
@@ -20864,22 +20864,22 @@
         <v>9.6774193548387011E-2</v>
       </c>
       <c r="Y192" s="18">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="Z192" s="18">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AA192" s="17">
-        <v>0.43939393939393939</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AB192" s="17">
-        <v>0.68421052631578949</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="AC192" s="17">
-        <v>0.51283891547049443</v>
+        <v>0.64152046783625738</v>
       </c>
       <c r="AD192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE192" s="18">
         <v>2</v>
@@ -20962,19 +20962,19 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y193" s="18">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="Z193" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA193" s="17">
-        <v>0.20959595959595959</v>
+        <v>0.28282828282828282</v>
       </c>
       <c r="AB193" s="17">
-        <v>0.42857142857142855</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AC193" s="17">
-        <v>0.27528860028860025</v>
+        <v>0.36940836940836941</v>
       </c>
       <c r="AD193">
         <v>6</v>
@@ -21060,28 +21060,28 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y194" s="18">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="Z194" s="18">
         <v>5</v>
       </c>
       <c r="AA194" s="17">
-        <v>0.28615384615384615</v>
+        <v>0.36615384615384616</v>
       </c>
       <c r="AB194" s="17">
         <v>1.25</v>
       </c>
       <c r="AC194" s="17">
-        <v>0.5753076923076923</v>
+        <v>0.63130769230769235</v>
       </c>
       <c r="AD194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE194" s="18">
         <v>2</v>
       </c>
       <c r="AF194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:32" x14ac:dyDescent="0.3">
@@ -21158,22 +21158,22 @@
         <v>-6.4516129032257119E-3</v>
       </c>
       <c r="Y195" s="18">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="Z195" s="18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA195" s="17">
-        <v>0.30036630036630035</v>
+        <v>0.44505494505494503</v>
       </c>
       <c r="AB195" s="17">
-        <v>1.125</v>
+        <v>1.375</v>
       </c>
       <c r="AC195" s="17">
-        <v>0.5477564102564102</v>
+        <v>0.72403846153846163</v>
       </c>
       <c r="AD195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE195" s="18">
         <v>2</v>
@@ -21256,22 +21256,22 @@
         <v>9.1811414392059421E-2</v>
       </c>
       <c r="Y196" s="18">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="Z196" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA196" s="17">
-        <v>0.36842105263157893</v>
+        <v>0.41295546558704455</v>
       </c>
       <c r="AB196" s="17">
-        <v>0.54545454545454541</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="AC196" s="17">
-        <v>0.42153110047846887</v>
+        <v>0.46634155318365844</v>
       </c>
       <c r="AD196">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE196" s="18">
         <v>2</v>
@@ -21354,22 +21354,22 @@
         <v>9.1811414392059421E-2</v>
       </c>
       <c r="Y197" s="18">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="Z197" s="18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA197" s="17">
-        <v>0.52340425531914891</v>
+        <v>0.62553191489361704</v>
       </c>
       <c r="AB197" s="17">
-        <v>0.36363636363636365</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="AC197" s="17">
-        <v>0.47547388781431338</v>
+        <v>0.56059961315280471</v>
       </c>
       <c r="AD197">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE197" s="18">
         <v>6</v>
@@ -21452,28 +21452,28 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y198" s="18">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="Z198" s="18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA198" s="17">
-        <v>0.49776785714285715</v>
+        <v>0.5602678571428571</v>
       </c>
       <c r="AB198" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC198" s="17">
-        <v>0.94843750000000004</v>
+        <v>1.2921875</v>
       </c>
       <c r="AD198">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE198" s="18">
         <v>6</v>
       </c>
       <c r="AF198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:32" x14ac:dyDescent="0.3">
@@ -21550,19 +21550,19 @@
         <v>0.10394265232974886</v>
       </c>
       <c r="Y199" s="18">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Z199" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA199" s="17">
-        <v>0.12755102040816327</v>
+        <v>0.19387755102040816</v>
       </c>
       <c r="AB199" s="17">
-        <v>0.13333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="AC199" s="17">
-        <v>0.12928571428571428</v>
+        <v>0.1957142857142857</v>
       </c>
       <c r="AD199">
         <v>4</v>
@@ -21648,19 +21648,19 @@
         <v>6.4516129032258229E-2</v>
       </c>
       <c r="Y200" s="18">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="Z200" s="18">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AA200" s="17">
-        <v>0.45271629778672035</v>
+        <v>0.58752515090543256</v>
       </c>
       <c r="AB200" s="17">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AC200" s="17">
-        <v>0.88690140845070431</v>
+        <v>1.0712676056338029</v>
       </c>
       <c r="AD200">
         <v>1</v>
@@ -21746,22 +21746,22 @@
         <v>6.4516129032258007E-2</v>
       </c>
       <c r="Y201" s="18">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="Z201" s="18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA201" s="17">
-        <v>0.32911392405063289</v>
+        <v>0.48101265822784811</v>
       </c>
       <c r="AB201" s="17">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="AC201" s="17">
-        <v>0.40180831826401442</v>
+        <v>0.63670886075949373</v>
       </c>
       <c r="AD201">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="AE201" s="18">
         <v>6</v>
@@ -21844,22 +21844,22 @@
         <v>0</v>
       </c>
       <c r="Y202" s="18">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Z202" s="18">
         <v>0</v>
       </c>
       <c r="AA202" s="17">
-        <v>0.302491103202847</v>
+        <v>0.32384341637010677</v>
       </c>
       <c r="AB202" s="17">
         <v>0</v>
       </c>
       <c r="AC202" s="17">
-        <v>0.21174377224199289</v>
+        <v>0.22669039145907471</v>
       </c>
       <c r="AD202">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE202" s="18">
         <v>2</v>
@@ -21942,22 +21942,22 @@
         <v>6.4516129032258229E-2</v>
       </c>
       <c r="Y203" s="18">
-        <v>237</v>
+        <v>340</v>
       </c>
       <c r="Z203" s="18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA203" s="17">
-        <v>0.50425531914893618</v>
+        <v>0.72340425531914898</v>
       </c>
       <c r="AB203" s="17">
-        <v>0.47058823529411764</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="AC203" s="17">
-        <v>0.49415519399249064</v>
+        <v>0.70050062578222794</v>
       </c>
       <c r="AD203">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE203" s="18">
         <v>2</v>
@@ -22040,19 +22040,19 @@
         <v>6.4516129032258229E-2</v>
       </c>
       <c r="Y204" s="18">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="Z204" s="18">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AA204" s="17">
-        <v>0.42227979274611399</v>
+        <v>0.48963730569948188</v>
       </c>
       <c r="AB204" s="17">
-        <v>0.82352941176470584</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="AC204" s="17">
-        <v>0.54265467845169157</v>
+        <v>0.69568729046022559</v>
       </c>
       <c r="AD204">
         <v>3</v>
@@ -22138,19 +22138,19 @@
         <v>9.1811414392059421E-2</v>
       </c>
       <c r="Y205" s="18">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="Z205" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA205" s="17">
-        <v>0.37786259541984735</v>
+        <v>0.45038167938931295</v>
       </c>
       <c r="AB205" s="17">
-        <v>0.36363636363636365</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="AC205" s="17">
-        <v>0.37359472588480225</v>
+        <v>0.4516308119361554</v>
       </c>
       <c r="AD205">
         <v>2</v>
@@ -22236,22 +22236,22 @@
         <v>0</v>
       </c>
       <c r="Y206" s="18">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="Z206" s="18">
+        <v>5</v>
+      </c>
+      <c r="AA206" s="17">
+        <v>0.40669856459330145</v>
+      </c>
+      <c r="AB206" s="17">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AC206" s="17">
+        <v>0.78468899521531099</v>
+      </c>
+      <c r="AD206">
         <v>2</v>
-      </c>
-      <c r="AA206" s="17">
-        <v>0.32057416267942584</v>
-      </c>
-      <c r="AB206" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AC206" s="17">
-        <v>0.42440191387559806</v>
-      </c>
-      <c r="AD206">
-        <v>4</v>
       </c>
       <c r="AE206" s="18">
         <v>1</v>
@@ -22334,22 +22334,22 @@
         <v>1.129032258064516</v>
       </c>
       <c r="Y207" s="18">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="Z207" s="18">
         <v>1</v>
       </c>
       <c r="AA207" s="17">
-        <v>0.27727272727272728</v>
+        <v>0.35454545454545455</v>
       </c>
       <c r="AB207" s="17">
         <v>0.33333333333333331</v>
       </c>
       <c r="AC207" s="17">
-        <v>0.29409090909090913</v>
+        <v>0.3481818181818182</v>
       </c>
       <c r="AD207">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE207" s="18">
         <v>1</v>
@@ -22432,28 +22432,28 @@
         <v>0.10394265232974886</v>
       </c>
       <c r="Y208" s="18">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="Z208" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA208" s="17">
-        <v>0.37259615384615385</v>
+        <v>0.46634615384615385</v>
       </c>
       <c r="AB208" s="17">
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AC208" s="17">
-        <v>0.56081730769230775</v>
+        <v>0.72644230769230778</v>
       </c>
       <c r="AD208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE208" s="18">
         <v>1</v>
       </c>
       <c r="AF208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:32" x14ac:dyDescent="0.3">
@@ -22530,19 +22530,19 @@
         <v>0.77419354838709675</v>
       </c>
       <c r="Y209" s="18">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="Z209" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA209" s="17">
-        <v>0.37321428571428572</v>
+        <v>0.41785714285714287</v>
       </c>
       <c r="AB209" s="17">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AC209" s="17">
-        <v>0.74124999999999996</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="AD209">
         <v>2</v>
@@ -22628,19 +22628,19 @@
         <v>0.45454545454545459</v>
       </c>
       <c r="Y210" s="18">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Z210" s="18">
         <v>4</v>
       </c>
       <c r="AA210" s="17">
-        <v>0.25454545454545452</v>
+        <v>0.29090909090909089</v>
       </c>
       <c r="AB210" s="17">
         <v>0.22222222222222221</v>
       </c>
       <c r="AC210" s="17">
-        <v>0.24484848484848484</v>
+        <v>0.27030303030303032</v>
       </c>
       <c r="AD210">
         <v>5</v>
@@ -22726,19 +22726,19 @@
         <v>-6.4516129032257119E-3</v>
       </c>
       <c r="Y211" s="18">
-        <v>378</v>
+        <v>463</v>
       </c>
       <c r="Z211" s="18">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA211" s="17">
-        <v>0.58064516129032262</v>
+        <v>0.71121351766513052</v>
       </c>
       <c r="AB211" s="17">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AC211" s="17">
-        <v>1.3814516129032259</v>
+        <v>1.6978494623655913</v>
       </c>
       <c r="AD211">
         <v>1</v>
@@ -22824,19 +22824,19 @@
         <v>0.41935483870967727</v>
       </c>
       <c r="Y212" s="18">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="Z212" s="18">
         <v>3</v>
       </c>
       <c r="AA212" s="17">
-        <v>0.13821138211382114</v>
+        <v>0.17560975609756097</v>
       </c>
       <c r="AB212" s="17">
         <v>0.75</v>
       </c>
       <c r="AC212" s="17">
-        <v>0.32174796747967477</v>
+        <v>0.34792682926829266</v>
       </c>
       <c r="AD212">
         <v>2</v>
